--- a/ig/ch-core/StructureDefinition-ch-core-uidb-identifier.xlsx
+++ b/ig/ch-core/StructureDefinition-ch-core-uidb-identifier.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="160">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>4.0.0</t>
+    <t>4.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-19T13:50:36+01:00</t>
+    <t>2023-12-28T08:46:25+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -94,9 +94,6 @@
   </si>
   <si>
     <t>FHIR Version</t>
-  </si>
-  <si>
-    <t>4.0.1</t>
   </si>
   <si>
     <t>Kind</t>
@@ -773,47 +770,47 @@
         <v>26</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>27</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B17" t="s" s="2">
         <v>28</v>
-      </c>
-      <c r="B17" t="s" s="2">
-        <v>29</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="B18" t="s" s="2">
         <v>30</v>
-      </c>
-      <c r="B18" t="s" s="2">
-        <v>31</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s" s="2">
         <v>32</v>
-      </c>
-      <c r="B19" t="s" s="2">
-        <v>33</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="B20" t="s" s="2">
         <v>34</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>35</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="B21" t="s" s="2">
         <v>36</v>
-      </c>
-      <c r="B21" t="s" s="2">
-        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -832,1162 +829,1162 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="18.85546875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="18.375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="18.375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.3515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="12.203125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="23.58203125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="22.5234375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="167.43359375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="162.11328125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="98.375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="43.6484375" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="18.1875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="38.1875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="95.3984375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="44.71875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="17.4453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="62.87890625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="143.74609375" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="25.4375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="60.68359375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="139.15234375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="25.23828125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
+        <v>37</v>
+      </c>
+      <c r="B1" t="s" s="1">
         <v>38</v>
       </c>
-      <c r="B1" t="s" s="1">
+      <c r="C1" t="s" s="1">
         <v>39</v>
       </c>
-      <c r="C1" t="s" s="1">
+      <c r="D1" t="s" s="1">
         <v>40</v>
       </c>
-      <c r="D1" t="s" s="1">
+      <c r="E1" t="s" s="1">
         <v>41</v>
       </c>
-      <c r="E1" t="s" s="1">
+      <c r="F1" t="s" s="1">
         <v>42</v>
       </c>
-      <c r="F1" t="s" s="1">
+      <c r="G1" t="s" s="1">
         <v>43</v>
       </c>
-      <c r="G1" t="s" s="1">
+      <c r="H1" t="s" s="1">
         <v>44</v>
       </c>
-      <c r="H1" t="s" s="1">
+      <c r="I1" t="s" s="1">
         <v>45</v>
       </c>
-      <c r="I1" t="s" s="1">
+      <c r="J1" t="s" s="1">
         <v>46</v>
       </c>
-      <c r="J1" t="s" s="1">
+      <c r="K1" t="s" s="1">
         <v>47</v>
       </c>
-      <c r="K1" t="s" s="1">
+      <c r="L1" t="s" s="1">
         <v>48</v>
       </c>
-      <c r="L1" t="s" s="1">
+      <c r="M1" t="s" s="1">
         <v>49</v>
       </c>
-      <c r="M1" t="s" s="1">
+      <c r="N1" t="s" s="1">
         <v>50</v>
       </c>
-      <c r="N1" t="s" s="1">
+      <c r="O1" t="s" s="1">
         <v>51</v>
       </c>
-      <c r="O1" t="s" s="1">
+      <c r="P1" t="s" s="1">
         <v>52</v>
       </c>
-      <c r="P1" t="s" s="1">
+      <c r="Q1" t="s" s="1">
         <v>53</v>
       </c>
-      <c r="Q1" t="s" s="1">
+      <c r="R1" t="s" s="1">
         <v>54</v>
       </c>
-      <c r="R1" t="s" s="1">
+      <c r="S1" t="s" s="1">
         <v>55</v>
       </c>
-      <c r="S1" t="s" s="1">
+      <c r="T1" t="s" s="1">
         <v>56</v>
       </c>
-      <c r="T1" t="s" s="1">
+      <c r="U1" t="s" s="1">
         <v>57</v>
       </c>
-      <c r="U1" t="s" s="1">
+      <c r="V1" t="s" s="1">
         <v>58</v>
       </c>
-      <c r="V1" t="s" s="1">
+      <c r="W1" t="s" s="1">
         <v>59</v>
       </c>
-      <c r="W1" t="s" s="1">
+      <c r="X1" t="s" s="1">
         <v>60</v>
       </c>
-      <c r="X1" t="s" s="1">
+      <c r="Y1" t="s" s="1">
         <v>61</v>
       </c>
-      <c r="Y1" t="s" s="1">
+      <c r="Z1" t="s" s="1">
         <v>62</v>
       </c>
-      <c r="Z1" t="s" s="1">
+      <c r="AA1" t="s" s="1">
         <v>63</v>
       </c>
-      <c r="AA1" t="s" s="1">
+      <c r="AB1" t="s" s="1">
         <v>64</v>
       </c>
-      <c r="AB1" t="s" s="1">
+      <c r="AC1" t="s" s="1">
         <v>65</v>
       </c>
-      <c r="AC1" t="s" s="1">
+      <c r="AD1" t="s" s="1">
         <v>66</v>
       </c>
-      <c r="AD1" t="s" s="1">
+      <c r="AE1" t="s" s="1">
         <v>67</v>
       </c>
-      <c r="AE1" t="s" s="1">
+      <c r="AF1" t="s" s="1">
         <v>68</v>
       </c>
-      <c r="AF1" t="s" s="1">
+      <c r="AG1" t="s" s="1">
         <v>69</v>
       </c>
-      <c r="AG1" t="s" s="1">
+      <c r="AH1" t="s" s="1">
         <v>70</v>
       </c>
-      <c r="AH1" t="s" s="1">
+      <c r="AI1" t="s" s="1">
         <v>71</v>
       </c>
-      <c r="AI1" t="s" s="1">
+      <c r="AJ1" t="s" s="1">
         <v>72</v>
       </c>
-      <c r="AJ1" t="s" s="1">
+      <c r="AK1" t="s" s="1">
         <v>73</v>
       </c>
-      <c r="AK1" t="s" s="1">
+      <c r="AL1" t="s" s="1">
         <v>74</v>
       </c>
-      <c r="AL1" t="s" s="1">
+      <c r="AM1" t="s" s="1">
         <v>75</v>
-      </c>
-      <c r="AM1" t="s" s="1">
-        <v>76</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G2" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="G2" t="s" s="2">
+      <c r="H2" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I2" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J2" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K2" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="H2" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I2" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J2" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K2" t="s" s="2">
+      <c r="L2" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="L2" t="s" s="2">
+      <c r="M2" t="s" s="2">
         <v>81</v>
-      </c>
-      <c r="M2" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S2" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T2" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U2" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V2" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W2" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X2" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y2" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z2" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA2" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB2" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC2" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD2" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE2" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF2" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="AG2" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="S2" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T2" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U2" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V2" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W2" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X2" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y2" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z2" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA2" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB2" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC2" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD2" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE2" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF2" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="AG2" t="s" s="2">
+      <c r="AH2" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="AH2" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="AI2" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="AJ2" t="s" s="2">
+      <c r="AK2" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="AK2" t="s" s="2">
+      <c r="AL2" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="AL2" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="AM2" t="s" s="2">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G3" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J3" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K3" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H3" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J3" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>90</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>91</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S3" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T3" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U3" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V3" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W3" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X3" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y3" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z3" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA3" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB3" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC3" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD3" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE3" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF3" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AG3" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="S3" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T3" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U3" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V3" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W3" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X3" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y3" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z3" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA3" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB3" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC3" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD3" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE3" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF3" t="s" s="2">
+      <c r="AH3" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI3" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ3" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK3" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL3" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="AG3" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH3" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI3" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ3" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK3" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL3" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="AM3" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G4" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="G4" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="H4" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K4" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="L4" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="L4" t="s" s="2">
+      <c r="M4" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="M4" t="s" s="2">
+      <c r="N4" t="s" s="2">
         <v>98</v>
-      </c>
-      <c r="N4" t="s" s="2">
-        <v>99</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S4" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T4" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U4" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V4" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W4" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X4" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y4" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z4" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA4" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB4" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AC4" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AD4" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE4" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AF4" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AG4" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="S4" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T4" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U4" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V4" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W4" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X4" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y4" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z4" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA4" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB4" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AC4" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AD4" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE4" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AF4" t="s" s="2">
+      <c r="AH4" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI4" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ4" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="AG4" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH4" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI4" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ4" t="s" s="2">
-        <v>104</v>
-      </c>
       <c r="AK4" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I5" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="J5" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="J5" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="K5" t="s" s="2">
+      <c r="L5" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="M5" t="s" s="2">
+      <c r="N5" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="N5" t="s" s="2">
+      <c r="O5" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="O5" t="s" s="2">
-        <v>111</v>
-      </c>
       <c r="P5" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S5" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T5" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U5" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V5" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W5" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X5" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="Y5" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="Z5" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AA5" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB5" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC5" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD5" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE5" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF5" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AG5" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="S5" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T5" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U5" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V5" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W5" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X5" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="Y5" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="Z5" t="s" s="2">
+      <c r="AH5" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI5" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ5" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AK5" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="AA5" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB5" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC5" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD5" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE5" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF5" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AG5" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH5" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI5" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ5" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AK5" t="s" s="2">
+      <c r="AL5" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="AL5" t="s" s="2">
-        <v>116</v>
-      </c>
       <c r="AM5" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K6" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="L6" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="M6" t="s" s="2">
+      <c r="N6" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="N6" t="s" s="2">
+      <c r="O6" t="s" s="2">
         <v>121</v>
       </c>
-      <c r="O6" t="s" s="2">
-        <v>122</v>
-      </c>
       <c r="P6" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X6" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="Y6" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="Z6" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF6" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="AG6" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="S6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X6" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="Y6" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="Z6" t="s" s="2">
+      <c r="AH6" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ6" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AK6" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="AA6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF6" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="AG6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH6" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ6" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AK6" t="s" s="2">
-        <v>126</v>
-      </c>
       <c r="AL6" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K7" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="L7" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="M7" t="s" s="2">
+      <c r="N7" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="N7" t="s" s="2">
+      <c r="O7" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="O7" t="s" s="2">
-        <v>132</v>
-      </c>
       <c r="P7" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="S7" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T7" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="S7" t="s" s="2">
+      <c r="U7" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V7" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W7" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X7" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y7" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z7" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA7" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB7" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC7" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD7" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE7" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF7" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="AG7" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="T7" t="s" s="2">
+      <c r="AH7" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AK7" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="U7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF7" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AK7" t="s" s="2">
+      <c r="AL7" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="AL7" t="s" s="2">
+      <c r="AM7" t="s" s="2">
         <v>136</v>
-      </c>
-      <c r="AM7" t="s" s="2">
-        <v>137</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G8" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H8" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I8" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J8" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G8" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J8" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="K8" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="L8" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="M8" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="M8" t="s" s="2">
+      <c r="N8" t="s" s="2">
         <v>140</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>141</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S8" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T8" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="U8" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V8" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W8" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X8" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y8" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z8" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA8" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB8" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC8" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD8" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE8" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF8" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AG8" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="S8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T8" t="s" s="2">
+      <c r="AH8" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI8" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ8" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AK8" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="U8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF8" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AG8" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH8" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ8" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AK8" t="s" s="2">
+      <c r="AL8" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="AL8" t="s" s="2">
+      <c r="AM8" t="s" s="2">
         <v>144</v>
-      </c>
-      <c r="AM8" t="s" s="2">
-        <v>145</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>148</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>149</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S9" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T9" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U9" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V9" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W9" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X9" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y9" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z9" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA9" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB9" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC9" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD9" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE9" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF9" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AG9" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="S9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF9" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="AG9" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="AH9" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AK9" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="AL9" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="AL9" t="s" s="2">
+      <c r="AM9" t="s" s="2">
         <v>151</v>
-      </c>
-      <c r="AM9" t="s" s="2">
-        <v>152</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="M10" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="M10" t="s" s="2">
+      <c r="N10" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S10" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T10" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U10" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V10" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W10" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X10" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y10" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z10" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA10" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB10" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC10" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD10" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE10" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF10" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="AG10" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="S10" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T10" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U10" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V10" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W10" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X10" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y10" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z10" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA10" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB10" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC10" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD10" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE10" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF10" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="AG10" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="AH10" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AK10" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="AL10" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="AL10" t="s" s="2">
+      <c r="AM10" t="s" s="2">
         <v>159</v>
-      </c>
-      <c r="AM10" t="s" s="2">
-        <v>160</v>
       </c>
     </row>
   </sheetData>

--- a/ig/ch-core/StructureDefinition-ch-core-uidb-identifier.xlsx
+++ b/ig/ch-core/StructureDefinition-ch-core-uidb-identifier.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="163">
   <si>
     <t>Property</t>
   </si>
@@ -30,70 +30,76 @@
     <t>Version</t>
   </si>
   <si>
+    <t>5.0.0-ballot</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>UIDBIdentifier</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>UIDB Identifier</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>active</t>
+  </si>
+  <si>
+    <t>Experimental</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>2024-05-16T16:13:45+00:00</t>
+  </si>
+  <si>
+    <t>Publisher</t>
+  </si>
+  <si>
+    <t>HL7 Switzerland</t>
+  </si>
+  <si>
+    <t>Contact</t>
+  </si>
+  <si>
+    <t>HL7 Switzerland (https://www.hl7.ch/)</t>
+  </si>
+  <si>
+    <t>HL7 Switzerland (https://www.hl7.ch/(WORK))</t>
+  </si>
+  <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Identifier holding a number for UIDB (Unique Identification Business), UID (Verwendung der Unternehmens-Identifikationsnummer), IDE (Utilisation du numéro d'identification des entreprises), IDI (Utilizzo del numero d'identificazione delle imprese)</t>
+  </si>
+  <si>
+    <t>Purpose</t>
+  </si>
+  <si>
+    <t>Copyright</t>
+  </si>
+  <si>
+    <t>CC0-1.0</t>
+  </si>
+  <si>
+    <t>FHIR Version</t>
+  </si>
+  <si>
     <t>4.0.1</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>UIDBIdentifier</t>
-  </si>
-  <si>
-    <t>Title</t>
-  </si>
-  <si>
-    <t>UIDB Identifier</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>active</t>
-  </si>
-  <si>
-    <t>Experimental</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>2023-12-28T08:46:25+01:00</t>
-  </si>
-  <si>
-    <t>Publisher</t>
-  </si>
-  <si>
-    <t>HL7 Switzerland</t>
-  </si>
-  <si>
-    <t>Contact</t>
-  </si>
-  <si>
-    <t>No display for ContactDetail</t>
-  </si>
-  <si>
-    <t>Jurisdiction</t>
-  </si>
-  <si>
-    <t>Switzerland</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Identifier holding a number for UIDB (Unique Identification Business), UID (Verwendung der Unternehmens-Identifikationsnummer), IDE (Utilisation du numéro d'identification des entreprises), IDI (Utilizzo del numero d'identificazione delle imprese)</t>
-  </si>
-  <si>
-    <t>Purpose</t>
-  </si>
-  <si>
-    <t>Copyright</t>
-  </si>
-  <si>
-    <t>CC0-1.0</t>
-  </si>
-  <si>
-    <t>FHIR Version</t>
   </si>
   <si>
     <t>Kind</t>
@@ -450,6 +456,10 @@
   </si>
   <si>
     <t>123456</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+uidb-length:UIDB must start with 'CHE' followed by 9 digits {matches('^CHE[0-9]{9}$')}uidb-modulus-11:UIDB must pass the modulus 11 check {11-((substring(3,1).toInteger()*5)+(substring(4,1).toInteger()*4)+(substring(5,1).toInteger()*3)+(substring(6,1).toInteger()*2)+(substring(7,1).toInteger()*7)+(substring(8,1).toInteger()*6)+(substring(9,1).toInteger()*5)+(substring(10,1).toInteger()*4))mod(11)=substring(11,1).toInteger()}</t>
   </si>
   <si>
     <t>CX.1 / EI.1</t>
@@ -732,85 +742,85 @@
         <v>17</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>5</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -829,1162 +839,1162 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="18.375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="18.375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.3515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="12.203125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="18.85546875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="18.85546875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="22.5234375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="23.58203125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="162.11328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="167.43359375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.1875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="95.3984375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="44.71875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="17.4453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="98.375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="43.6484375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="18.1875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="60.68359375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="139.15234375" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="25.23828125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="62.87890625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="143.74609375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="25.4375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="N4" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="O5" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="P5" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="O6" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P6" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="O7" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="P7" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>83</v>
+        <v>144</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>

--- a/ig/ch-core/StructureDefinition-ch-core-uidb-identifier.xlsx
+++ b/ig/ch-core/StructureDefinition-ch-core-uidb-identifier.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>5.0.0-ballot</t>
+    <t>5.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-16T16:13:45+00:00</t>
+    <t>2024-12-17T19:57:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>HL7 Switzerland (https://www.hl7.ch/)</t>
   </si>
   <si>
-    <t>HL7 Switzerland (https://www.hl7.ch/(WORK))</t>
+    <t>HL7 Switzerland (https://www.hl7.ch/(work))</t>
   </si>
   <si>
     <t>Jurisdiction</t>

--- a/ig/ch-core/StructureDefinition-ch-core-uidb-identifier.xlsx
+++ b/ig/ch-core/StructureDefinition-ch-core-uidb-identifier.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>5.0.0</t>
+    <t>6.0.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-17T19:57:45+00:00</t>
+    <t>2025-05-22T06:00:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>HL7 Switzerland (https://www.hl7.ch/)</t>
   </si>
   <si>
-    <t>HL7 Switzerland (https://www.hl7.ch/(work))</t>
+    <t>HL7 Switzerland (https://www.hl7.ch/(Work))</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -839,44 +839,44 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="18.85546875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="16.1640625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="16.1640625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="10.8515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="10.83984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="23.58203125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="20.21875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="167.43359375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="143.54296875" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="98.375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="43.6484375" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="18.1875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="32.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="84.33984375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="37.421875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="15.59375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="62.87890625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="143.74609375" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="25.4375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="53.91015625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="123.23828125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="21.80859375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/ig/ch-core/StructureDefinition-ch-core-uidb-identifier.xlsx
+++ b/ig/ch-core/StructureDefinition-ch-core-uidb-identifier.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>6.0.0-ballot</t>
+    <t>6.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-22T06:00:59+00:00</t>
+    <t>2025-12-16T08:02:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -403,7 +403,7 @@
     <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type|4.0.1</t>
   </si>
   <si>
     <t>CX.5</t>
@@ -459,7 +459,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-uidb-length:UIDB must start with 'CHE' followed by 9 digits {matches('^CHE[0-9]{9}$')}uidb-modulus-11:UIDB must pass the modulus 11 check {11-((substring(3,1).toInteger()*5)+(substring(4,1).toInteger()*4)+(substring(5,1).toInteger()*3)+(substring(6,1).toInteger()*2)+(substring(7,1).toInteger()*7)+(substring(8,1).toInteger()*6)+(substring(9,1).toInteger()*5)+(substring(10,1).toInteger()*4))mod(11)=substring(11,1).toInteger()}</t>
+uidb-length:UIDB must start with 'CHE' followed by a non-zero digit, then 8 more digits {matches('^CHE[1-9][0-9]{8}$')}uidb-modulus-11:UIDB must pass the modulus 11 check {11-((substring(3,1).toInteger()*5)+(substring(4,1).toInteger()*4)+(substring(5,1).toInteger()*3)+(substring(6,1).toInteger()*2)+(substring(7,1).toInteger()*7)+(substring(8,1).toInteger()*6)+(substring(9,1).toInteger()*5)+(substring(10,1).toInteger()*4))mod(11)=substring(11,1).toInteger()}</t>
   </si>
   <si>
     <t>CX.1 / EI.1</t>
@@ -496,7 +496,7 @@
     <t>Identifier.assigner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -849,7 +849,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="20.21875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="24.74609375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -864,7 +864,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="84.33984375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="37.421875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="38.1484375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
